--- a/hack_test.xlsx
+++ b/hack_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailkyutechjp-my.sharepoint.com/personal/horinouchi_yuki189_mail_kyutech_jp/Documents/プログラム関係2026/サポータズ_ハッカソン/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailkyutechjp-my.sharepoint.com/personal/horinouchi_yuki189_mail_kyutech_jp/Documents/プログラム関係2026/ハッカソン/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{812EAF1B-B95B-4878-A803-702759092B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA3A799B-9357-4AA6-BB38-0B7282F644FA}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{812EAF1B-B95B-4878-A803-702759092B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E64B115E-C62F-46FA-9149-C2370CFEF2EC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2620" yWindow="0" windowWidth="14630" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フォームの回答 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="153">
   <si>
     <t>タイムスタンプ</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>説明時間はいかがでしたか。</t>
-  </si>
-  <si>
-    <t>よかった、ためになった説明を教えてください</t>
   </si>
   <si>
     <t>上記を選んだ理由を教えてくだいさい。</t>
@@ -495,6 +492,147 @@
   </si>
   <si>
     <t>新入生ご本人様</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ちょうど良い</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>よかった、ためになった説明を教えてください</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>大学生協のご説明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>九工大生の一日（通学編）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>九工大生の一日（講義編）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>九工大生の一日（昼食編）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>九工大生の一日（学外編）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>九工大での</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>年間</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -505,7 +643,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -533,6 +671,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -554,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -569,6 +715,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -860,9 +1009,9 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:M35"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -886,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -906,20 +1055,20 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -927,38 +1076,38 @@
         <v>46005.494550173607</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" s="3">
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -966,40 +1115,40 @@
         <v>46005.494957789357</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1007,38 +1156,38 @@
         <v>46005.494991064814</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="3">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1046,34 +1195,34 @@
         <v>46005.495036597218</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1081,38 +1230,38 @@
         <v>46005.495343865739</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="3">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1120,38 +1269,38 @@
         <v>46005.495431701391</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="3">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1159,38 +1308,38 @@
         <v>46005.495583877317</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="3">
         <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1198,40 +1347,40 @@
         <v>46005.495596469904</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="3">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1239,34 +1388,34 @@
         <v>46005.495606111115</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
         <v>5</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1274,38 +1423,38 @@
         <v>46005.495700057872</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="3">
         <v>4</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1313,36 +1462,36 @@
         <v>46005.495708379633</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
         <v>4</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1350,38 +1499,38 @@
         <v>46005.495737696758</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="3">
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1389,36 +1538,36 @@
         <v>46005.49575263889</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
         <v>4</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1426,36 +1575,36 @@
         <v>46005.495833067129</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1463,40 +1612,40 @@
         <v>46005.495879155089</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="3">
         <v>3</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1504,40 +1653,40 @@
         <v>46005.495910682876</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="3">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1545,38 +1694,38 @@
         <v>46005.495917638887</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="3">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1584,38 +1733,38 @@
         <v>46005.495990694442</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="3">
-        <v>5</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1623,38 +1772,38 @@
         <v>46005.496019872684</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="F20" s="3">
         <v>4</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1662,34 +1811,34 @@
         <v>46005.496027847221</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="3">
         <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1697,38 +1846,38 @@
         <v>46005.496095625</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="3">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1736,34 +1885,34 @@
         <v>46005.496246724535</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3">
         <v>5</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1771,36 +1920,36 @@
         <v>46005.496289178242</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="F24" s="3">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1808,34 +1957,34 @@
         <v>46005.496300405095</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3">
         <v>4</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1843,36 +1992,36 @@
         <v>46005.496355196759</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F26" s="3">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1880,40 +2029,40 @@
         <v>46005.496364976847</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="3">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1921,36 +2070,36 @@
         <v>46005.496384745369</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="F28" s="3">
-        <v>5</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1958,36 +2107,36 @@
         <v>46005.496479016205</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3">
         <v>5</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J29" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1995,36 +2144,36 @@
         <v>46005.496607083332</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="F30" s="3">
-        <v>5</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2032,34 +2181,34 @@
         <v>46005.49703489583</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3">
         <v>5</v>
       </c>
       <c r="G31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2067,38 +2216,38 @@
         <v>46005.497133842597</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2106,38 +2255,38 @@
         <v>46005.497235995368</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F33" s="3">
         <v>4</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2145,34 +2294,34 @@
         <v>46005.498861423606</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F34" s="3">
         <v>5</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2180,36 +2329,36 @@
         <v>46005.540079421291</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="3">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="3">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
